--- a/data/trans_dic/P21_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P21_R-Estudios-trans_dic.xlsx
@@ -697,7 +697,7 @@
         <v>0.2098847778625664</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.2726607286044526</v>
+        <v>0.2726607286044525</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1682773155029392</v>
+        <v>0.1707030664800973</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.2310618301118941</v>
+        <v>0.2312974321287802</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1546241846185541</v>
+        <v>0.1576463603034376</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.2103097404136152</v>
+        <v>0.2146702860508698</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.2354480008429703</v>
+        <v>0.2357686599522823</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.2839998829934579</v>
+        <v>0.279849172379598</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.1997415353946567</v>
+        <v>0.2008197563744857</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.2700537068660616</v>
+        <v>0.2679285354702535</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.2131428741600891</v>
+        <v>0.2131986641675869</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.2653445400136039</v>
+        <v>0.2663200957645448</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.19042860941067</v>
+        <v>0.1888833267397996</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.2524005998596137</v>
+        <v>0.2529920762171238</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.2180071464050694</v>
+        <v>0.2185451848141882</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2878759744837184</v>
+        <v>0.288744735851826</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.2127934544687867</v>
+        <v>0.2136038465789573</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.2788074829466069</v>
+        <v>0.2849958414543975</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.2849028861398493</v>
+        <v>0.2843953756817834</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.3313538432537021</v>
+        <v>0.3321589233351508</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.2578156267305586</v>
+        <v>0.2589251094221275</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.3170758435469034</v>
+        <v>0.3162756281753656</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.2479613050574053</v>
+        <v>0.2469513893769592</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.3059477491556309</v>
+        <v>0.3048911183900094</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.2306706408991241</v>
+        <v>0.229958751184754</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.294357399881372</v>
+        <v>0.2937838711886698</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1470715127227733</v>
+        <v>0.1484249361583423</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.178116476816215</v>
+        <v>0.1778358015534642</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.150824364448477</v>
+        <v>0.151408934387574</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1740648570873782</v>
+        <v>0.1751695988759652</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.2164902820957369</v>
+        <v>0.2154184219072251</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.2367835627388798</v>
+        <v>0.2361352933080823</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.1830614580648025</v>
+        <v>0.1804428534997026</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.2155195088113432</v>
+        <v>0.2167539612017504</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.1855790624669075</v>
+        <v>0.1859311723212918</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.2115508865714882</v>
+        <v>0.211350507881739</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.170502513321679</v>
+        <v>0.1704645947512368</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.2000676028005357</v>
+        <v>0.1988468400309332</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1859357785534901</v>
+        <v>0.1844432154907168</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.2135711460890868</v>
+        <v>0.2159197824272736</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1843214727285349</v>
+        <v>0.185545116642963</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2129483620567712</v>
+        <v>0.2135892422541115</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2583543023526086</v>
+        <v>0.2579551438621745</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.2795430903400785</v>
+        <v>0.2798291604025789</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.2162689427355774</v>
+        <v>0.217496792336956</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.24895720038828</v>
+        <v>0.248988599640479</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.2151429951615053</v>
+        <v>0.2163556591121715</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.2404791489492794</v>
+        <v>0.2394045319983218</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.1948448108014268</v>
+        <v>0.1969822463313102</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.2272978143593882</v>
+        <v>0.2249440493445036</v>
       </c>
     </row>
     <row r="10">
@@ -957,7 +957,7 @@
         <v>0.2475143260202402</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.2589851594786794</v>
+        <v>0.2589851594786793</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.1806765543136316</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1147096053817366</v>
+        <v>0.1160120045048437</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1122708543392713</v>
+        <v>0.1151054113675347</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1091822275925954</v>
+        <v>0.1071951795293303</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1902243354235273</v>
+        <v>0.1886189675221598</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1822502925110646</v>
+        <v>0.1845590594845667</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.2049781680155592</v>
+        <v>0.2060622408430165</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.2145477202493778</v>
+        <v>0.212637380756038</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.2317390525545156</v>
+        <v>0.2309242254950281</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.1577068202040579</v>
+        <v>0.1558278520616746</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.168578978504608</v>
+        <v>0.1674839993728524</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.1689012837739552</v>
+        <v>0.1682167325251047</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.2199593225029405</v>
+        <v>0.2200803448163524</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1789232785086879</v>
+        <v>0.176898941591583</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1798746943716793</v>
+        <v>0.1792282871636419</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1738818834442022</v>
+        <v>0.1682605491144926</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.2598403540141225</v>
+        <v>0.2598705475605752</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.2635141838964392</v>
+        <v>0.2600326604486093</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.2957004381210948</v>
+        <v>0.2917394093239681</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.2888222857702518</v>
+        <v>0.2895786478233012</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.2897411001159025</v>
+        <v>0.2894423217788223</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.2071986169722184</v>
+        <v>0.2061025960999514</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.2201774335686686</v>
+        <v>0.2235350290733044</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.2176187637283478</v>
+        <v>0.2204116165808145</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.2670797434466599</v>
+        <v>0.2684702710474941</v>
       </c>
     </row>
     <row r="13">
@@ -1105,7 +1105,7 @@
         <v>0.1912108740087891</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.2299879203240841</v>
+        <v>0.2299879203240842</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.157464536887354</v>
+        <v>0.1576402926281555</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1929910888395737</v>
+        <v>0.1926164212879804</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1529503683984514</v>
+        <v>0.1543214144315322</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1929494510261902</v>
+        <v>0.1922723144361174</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2282491563117224</v>
+        <v>0.22961495712072</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.2610542835876594</v>
+        <v>0.2608958466608086</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.1993035911034582</v>
+        <v>0.2023802630224458</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.2369574599966394</v>
+        <v>0.2388724944117986</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.1976265454514131</v>
+        <v>0.1988881852235971</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.2305662151459212</v>
+        <v>0.230511708212458</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.1806062646097127</v>
+        <v>0.181103390356407</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.2197949470582472</v>
+        <v>0.2206940409715987</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1837504062115604</v>
+        <v>0.1851744090263748</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2216279653993382</v>
+        <v>0.2208148386489963</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1803160909795541</v>
+        <v>0.1814962851333973</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2230792060263683</v>
+        <v>0.2252592094939911</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.2581733691087022</v>
+        <v>0.2589919036990064</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.2923877093278912</v>
+        <v>0.2924699419781724</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.2279418389512334</v>
+        <v>0.2285092309958714</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.2632835278221552</v>
+        <v>0.263450879875895</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.2177234842244514</v>
+        <v>0.2189262489467894</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.2523570962781152</v>
+        <v>0.2518028880581989</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.2002556727153825</v>
+        <v>0.1997382236550169</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.2390480865522644</v>
+        <v>0.2394262362347734</v>
       </c>
     </row>
     <row r="16">
@@ -1463,40 +1463,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>173616</v>
+        <v>176118</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>225035</v>
+        <v>225264</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>116332</v>
+        <v>118606</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>121670</v>
+        <v>124193</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>309641</v>
+        <v>310062</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>379662</v>
+        <v>374113</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>198098</v>
+        <v>199168</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>221306</v>
+        <v>219565</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>500211</v>
+        <v>500342</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>613146</v>
+        <v>615400</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>332132</v>
+        <v>329437</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>352861</v>
+        <v>353688</v>
       </c>
     </row>
     <row r="7">
@@ -1507,40 +1507,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>224923</v>
+        <v>225478</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>280367</v>
+        <v>281213</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>160096</v>
+        <v>160706</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>161298</v>
+        <v>164878</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>374679</v>
+        <v>374012</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>442966</v>
+        <v>444043</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>255695</v>
+        <v>256795</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>259840</v>
+        <v>259185</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>581924</v>
+        <v>579554</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>706970</v>
+        <v>704528</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>402319</v>
+        <v>401077</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>411518</v>
+        <v>410716</v>
       </c>
     </row>
     <row r="8">
@@ -1643,40 +1643,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>248923</v>
+        <v>251213</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>349465</v>
+        <v>348914</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>312152</v>
+        <v>313362</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>388263</v>
+        <v>390727</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>343512</v>
+        <v>341812</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>415710</v>
+        <v>414572</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>363819</v>
+        <v>358615</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>467188</v>
+        <v>469864</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>608562</v>
+        <v>609717</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>786474</v>
+        <v>785729</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>691738</v>
+        <v>691584</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>879956</v>
+        <v>874587</v>
       </c>
     </row>
     <row r="11">
@@ -1687,40 +1687,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>314702</v>
+        <v>312175</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>419027</v>
+        <v>423635</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>381479</v>
+        <v>384011</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>474995</v>
+        <v>476425</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>409939</v>
+        <v>409306</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>490782</v>
+        <v>491284</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>429816</v>
+        <v>432257</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>539671</v>
+        <v>539740</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>705510</v>
+        <v>709486</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>894019</v>
+        <v>890024</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>790496</v>
+        <v>799168</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>999723</v>
+        <v>989370</v>
       </c>
     </row>
     <row r="12">
@@ -1823,40 +1823,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>63252</v>
+        <v>63970</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>54023</v>
+        <v>55387</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>59500</v>
+        <v>58417</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>134986</v>
+        <v>133847</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>86826</v>
+        <v>87926</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>94009</v>
+        <v>94507</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>117240</v>
+        <v>116196</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>170098</v>
+        <v>169500</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>162094</v>
+        <v>160163</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>158433</v>
+        <v>157404</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>184341</v>
+        <v>183594</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>317538</v>
+        <v>317713</v>
       </c>
     </row>
     <row r="15">
@@ -1867,40 +1867,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>98660</v>
+        <v>97543</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>86552</v>
+        <v>86241</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>94758</v>
+        <v>91695</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>184387</v>
+        <v>184409</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>125541</v>
+        <v>123883</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>135617</v>
+        <v>133801</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>157828</v>
+        <v>158241</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>212671</v>
+        <v>212452</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>212963</v>
+        <v>211836</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>206926</v>
+        <v>210081</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>237512</v>
+        <v>240560</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>385562</v>
+        <v>387569</v>
       </c>
     </row>
     <row r="16">
@@ -2003,40 +2003,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>515800</v>
+        <v>516376</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>659470</v>
+        <v>658190</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>514977</v>
+        <v>519593</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>678934</v>
+        <v>676551</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>771084</v>
+        <v>775698</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>927036</v>
+        <v>926474</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>702673</v>
+        <v>713520</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>881771</v>
+        <v>888898</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>1314990</v>
+        <v>1323385</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>1606637</v>
+        <v>1606257</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>1244845</v>
+        <v>1248272</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>1591301</v>
+        <v>1597811</v>
       </c>
     </row>
     <row r="19">
@@ -2047,40 +2047,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>601904</v>
+        <v>606568</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>757325</v>
+        <v>754547</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>607116</v>
+        <v>611089</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>784951</v>
+        <v>792622</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>872176</v>
+        <v>874941</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>1038305</v>
+        <v>1038597</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>803641</v>
+        <v>805642</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>979736</v>
+        <v>980359</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>1448714</v>
+        <v>1456717</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>1758481</v>
+        <v>1754619</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>1380281</v>
+        <v>1376714</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>1730693</v>
+        <v>1733430</v>
       </c>
     </row>
     <row r="20">
